--- a/VACCINATION_MANAGEMENT/out/production/VACCINATION_MANAGEMENT/SQL/Data/CERTIFICATE.xlsx
+++ b/VACCINATION_MANAGEMENT/out/production/VACCINATION_MANAGEMENT/SQL/Data/CERTIFICATE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Project Submission\IS201.M21_20520418_20521252_20521720_20521890\Huong dan cai dat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Projects\VACCINATION\VACCINATION_MANAGEMENT\src\SQL\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>PERSONALID</t>
   </si>
@@ -36,6 +36,57 @@
   </si>
   <si>
     <t>NOTE</t>
+  </si>
+  <si>
+    <t>272826216</t>
+  </si>
+  <si>
+    <t>272697035</t>
+  </si>
+  <si>
+    <t>072302002734</t>
+  </si>
+  <si>
+    <t>272272289</t>
+  </si>
+  <si>
+    <t>082203004408</t>
+  </si>
+  <si>
+    <t>281332992</t>
+  </si>
+  <si>
+    <t>272893719</t>
+  </si>
+  <si>
+    <t>312567854</t>
+  </si>
+  <si>
+    <t>272867563</t>
+  </si>
+  <si>
+    <t>272863413</t>
+  </si>
+  <si>
+    <t>272863193</t>
+  </si>
+  <si>
+    <t>272863183</t>
+  </si>
+  <si>
+    <t>272496184</t>
+  </si>
+  <si>
+    <t>284991638</t>
+  </si>
+  <si>
+    <t>281352653</t>
+  </si>
+  <si>
+    <t>044303003709</t>
+  </si>
+  <si>
+    <t>272893645</t>
   </si>
 </sst>
 </file>
@@ -71,8 +122,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A19" sqref="A19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,24 +431,211 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>281323065</v>
       </c>
-      <c r="B2">
+      <c r="B19">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C19">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>281323066</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
         <v>0</v>
       </c>
     </row>
